--- a/medicine/Mort/Cimetière_Saint-Jean_(Tarbes)/Cimetière_Saint-Jean_(Tarbes).xlsx
+++ b/medicine/Mort/Cimetière_Saint-Jean_(Tarbes)/Cimetière_Saint-Jean_(Tarbes).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Jean_(Tarbes)</t>
+          <t>Cimetière_Saint-Jean_(Tarbes)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Jean est un cimetière communal de la ville de Tarbes dans le département des Hautes-Pyrénées en région Occitanie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Jean_(Tarbes)</t>
+          <t>Cimetière_Saint-Jean_(Tarbes)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière rectangulaire s'étend sur 21 500 m2.
 Jusqu'en 1776 les paroissiens du quartier de Saint-Jean furent inhumés dans le premier cimetière qui était accolé à l'église Saint-Jean, aujourd’hui disparue. Le 10 septembre 1776, par souci de salubrité, Louis XVI signe une ordonnance interdisant les sépultures dans les églises, donc de 1776 à 1828 on trouve trois localisations du cimetière :
@@ -520,7 +534,7 @@
 3e : rue du Cimetière Saint-Jean.
 Il est agrandi une première fois en 1841 à la suite de la délibération du conseil municipal du 30 août 1860 et autorise l'exécution des travaux pour l'agrandissement du cimetière des paroisses Saint-Jean et Sainte-Thérèse.
 Le 10 septembre 1903 une délibération du conseil municipal décide la création d'une annexe avec expropriation du terrain mitoyen de De Gonnes.
-Un troisième agrandissement est décidé en 1939 comprenant le déclassement et l'incorporation au cimetière d'une partie de la rue du Cardinal d'Ossat[1].
+Un troisième agrandissement est décidé en 1939 comprenant le déclassement et l'incorporation au cimetière d'une partie de la rue du Cardinal d'Ossat.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Jean_(Tarbes)</t>
+          <t>Cimetière_Saint-Jean_(Tarbes)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est situé à Tarbes dans le quartier du Martinet (canton de Tarbes 2). Il comporte deux accès, un secondaire au sud-est sur la rue Saint-Jean et un accès principal au nord-ouest place du Souvenir Français.
 	Sélection de vues diverses
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Jean_(Tarbes)</t>
+          <t>Cimetière_Saint-Jean_(Tarbes)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre-Benoît Soult (1770-1843), général français de la Révolution et de l’Empire
 Bertrand Barère, (1755-1841), député des Hautes-Pyrénées
